--- a/KBL-Business flow/target/Data/Kbl datas.xlsx
+++ b/KBL-Business flow/target/Data/Kbl datas.xlsx
@@ -7,102 +7,32 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Address data"/>
+    <sheet r:id="rId1" sheetId="1" name="KBL datas"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
-    <t>Required detail</t>
+    <t>S.No</t>
   </si>
   <si>
-    <t>Customer shipping  data</t>
+    <t>Login credential</t>
   </si>
   <si>
-    <t>login Shipping</t>
+    <t>testautomatin@gmail.com</t>
   </si>
   <si>
-    <t>Customer  Number</t>
+    <t>Test iksula
+testautomatin@gmail.com
+OEM
+Email Verified Status : verified
+636903</t>
   </si>
   <si>
-    <t>Coupon code</t>
-  </si>
-  <si>
-    <t>Guest user</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>mohanraj.k@iksula.com</t>
-  </si>
-  <si>
-    <t>HARUR</t>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FLAT15</t>
-    </r>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Sarath</t>
-  </si>
-  <si>
-    <t>MOHAN</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>RAJ</t>
-  </si>
-  <si>
-    <t>Phonenumber</t>
-  </si>
-  <si>
-    <t>House No</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>TVK street</t>
-  </si>
-  <si>
-    <t>Anbu</t>
-  </si>
-  <si>
-    <t>CARD</t>
-  </si>
-  <si>
-    <t>CVV</t>
-  </si>
-  <si>
-    <t>MAP</t>
-  </si>
-  <si>
-    <t>CARD-1 F</t>
-  </si>
-  <si>
-    <t>OTP</t>
+    <t>Test@0605</t>
   </si>
 </sst>
 </file>
@@ -110,7 +40,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,7 +50,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000ff"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -131,66 +68,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000ff"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFc6c6c6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFc6c6c6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -204,55 +96,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,23 +421,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="29.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,185 +440,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="6">
-        <v>9344627947</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6383762492</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <v>146</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="12">
-        <v>4111111111111111</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6">
-        <v>123</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="12">
-        <v>4012888888881881</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1234</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KBL-Business flow/target/Data/Kbl datas.xlsx
+++ b/KBL-Business flow/target/Data/Kbl datas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>S.No</t>
   </si>
@@ -22,17 +22,31 @@
     <t>Login credential</t>
   </si>
   <si>
+    <t>Shipping forms detail</t>
+  </si>
+  <si>
     <t>testautomatin@gmail.com</t>
   </si>
   <si>
-    <t>Test iksula
-testautomatin@gmail.com
-OEM
-Email Verified Status : verified
-636903</t>
+    <t>Test</t>
   </si>
   <si>
     <t>Test@0605</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>TNT Garments</t>
+  </si>
+  <si>
+    <t>Thillai area</t>
+  </si>
+  <si>
+    <t>SAF Games Village</t>
+  </si>
+  <si>
+    <t>Sri Sakthi Nagar</t>
   </si>
 </sst>
 </file>
@@ -40,7 +54,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +79,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -96,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -104,6 +124,12 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -113,11 +139,29 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,56 +465,115 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="29.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="31.5">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="11">
+        <v>110001</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11">
+        <v>6383762492</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KBL-Business flow/target/Data/Kbl datas.xlsx
+++ b/KBL-Business flow/target/Data/Kbl datas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>S.No</t>
   </si>
@@ -25,28 +25,79 @@
     <t>Shipping forms detail</t>
   </si>
   <si>
+    <t>Footer Links</t>
+  </si>
+  <si>
+    <t>Categeory</t>
+  </si>
+  <si>
     <t>testautomatin@gmail.com</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
+    <t>CONTACT US</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL</t>
+  </si>
+  <si>
     <t>Test@0605</t>
   </si>
   <si>
     <t>Enter</t>
   </si>
   <si>
+    <t>1800-123-4443</t>
+  </si>
+  <si>
+    <t>COMMERCIAL</t>
+  </si>
+  <si>
     <t>TNT Garments</t>
   </si>
   <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>INDUSTRY</t>
+  </si>
+  <si>
     <t>Thillai area</t>
   </si>
   <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>AGRICULTURAL</t>
+  </si>
+  <si>
     <t>SAF Games Village</t>
   </si>
   <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>SERVICES</t>
+  </si>
+  <si>
     <t>Sri Sakthi Nagar</t>
+  </si>
+  <si>
+    <t>Agricultural</t>
+  </si>
+  <si>
+    <t>SELECT YOUR PUMP</t>
+  </si>
+  <si>
+    <t>Installation/Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy Policy for Website </t>
+  </si>
+  <si>
+    <t>My Wishlist</t>
   </si>
 </sst>
 </file>
@@ -116,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -124,7 +175,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -139,17 +190,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -157,8 +202,17 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -465,20 +519,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="29.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,92 +543,143 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="31.5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="10"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="11">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="9">
         <v>110001</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="11">
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="9">
         <v>6383762492</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KBL-Business flow/target/Data/Kbl datas.xlsx
+++ b/KBL-Business flow/target/Data/Kbl datas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>S.No</t>
   </si>
@@ -25,10 +25,7 @@
     <t>Shipping forms detail</t>
   </si>
   <si>
-    <t>Footer Links</t>
-  </si>
-  <si>
-    <t>Categeory</t>
+    <t>Admin crdential</t>
   </si>
   <si>
     <t>testautomatin@gmail.com</t>
@@ -37,10 +34,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>CONTACT US</t>
-  </si>
-  <si>
-    <t>RESIDENTIAL</t>
+    <t>mohanraj</t>
   </si>
   <si>
     <t>Test@0605</t>
@@ -49,55 +43,19 @@
     <t>Enter</t>
   </si>
   <si>
-    <t>1800-123-4443</t>
-  </si>
-  <si>
-    <t>COMMERCIAL</t>
+    <t>mohanraj@123</t>
   </si>
   <si>
     <t>TNT Garments</t>
   </si>
   <si>
-    <t>Residential</t>
-  </si>
-  <si>
-    <t>INDUSTRY</t>
-  </si>
-  <si>
     <t>Thillai area</t>
   </si>
   <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>AGRICULTURAL</t>
-  </si>
-  <si>
     <t>SAF Games Village</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
     <t>Sri Sakthi Nagar</t>
-  </si>
-  <si>
-    <t>Agricultural</t>
-  </si>
-  <si>
-    <t>SELECT YOUR PUMP</t>
-  </si>
-  <si>
-    <t>Installation/Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privacy Policy for Website </t>
-  </si>
-  <si>
-    <t>My Wishlist</t>
   </si>
 </sst>
 </file>
@@ -105,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,12 +88,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -167,55 +119,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,167 +462,121 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="29.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>600119</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="9">
         <v>110001</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="11"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="9">
         <v>6383762492</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KBL-Business flow/target/Data/Kbl datas.xlsx
+++ b/KBL-Business flow/target/Data/Kbl datas.xlsx
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>600119</v>
+        <v>500027</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>

--- a/KBL-Business flow/target/Data/Kbl datas.xlsx
+++ b/KBL-Business flow/target/Data/Kbl datas.xlsx
@@ -541,16 +541,24 @@
       <c r="D5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20000</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40000</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>

--- a/KBL-Business flow/target/Data/Kbl datas.xlsx
+++ b/KBL-Business flow/target/Data/Kbl datas.xlsx
@@ -7,55 +7,46 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="KBL datas"/>
+    <sheet r:id="rId1" sheetId="1" name="KBL-Sheet"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>S.No</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>S.NO-0</t>
   </si>
   <si>
     <t>Login credential</t>
   </si>
   <si>
-    <t>Shipping forms detail</t>
-  </si>
-  <si>
-    <t>Admin crdential</t>
+    <t xml:space="preserve"> Addres detail</t>
+  </si>
+  <si>
+    <t>Admin credential</t>
   </si>
   <si>
     <t>testautomatin@gmail.com</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>mohanraj</t>
   </si>
   <si>
     <t>Test@0605</t>
   </si>
   <si>
-    <t>Enter</t>
-  </si>
-  <si>
     <t>mohanraj@123</t>
   </si>
   <si>
-    <t>TNT Garments</t>
-  </si>
-  <si>
-    <t>Thillai area</t>
-  </si>
-  <si>
-    <t>SAF Games Village</t>
-  </si>
-  <si>
-    <t>Sri Sakthi Nagar</t>
+    <t>D11430150280</t>
+  </si>
+  <si>
+    <t>D41XB00502041033</t>
+  </si>
+  <si>
+    <t>D11130080576</t>
   </si>
 </sst>
 </file>
@@ -85,9 +76,8 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -119,13 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -140,25 +130,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,16 +443,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="26.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="32.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="23.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -484,9 +467,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
@@ -495,96 +480,214 @@
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="B4" s="4">
+        <v>620007</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>500027</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>20000</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>40000</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="9">
-        <v>110001</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="9">
-        <v>6383762492</v>
-      </c>
-      <c r="D10" s="8"/>
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
